--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/05,25/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 днрсч пок зпф от Котляров (согласовал Неоворотов).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/05,25/22,05,25 ПОКОМ ЗПФ филиалы/дв 22,05,25 днрсч пок зпф от Котляров (согласовал Неоворотов).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\22,05,25 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\05,25\22,05,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C89DDC-6DBA-40E4-A659-4DA31B53B807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E339F19-A580-49D0-B792-8BEE12C150B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,9 +430,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -569,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -604,6 +605,7 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -913,7 +915,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +932,7 @@
     <col min="12" max="14" width="0.5703125" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="21" width="5" customWidth="1"/>
     <col min="22" max="31" width="6" customWidth="1"/>
     <col min="32" max="32" width="21.5703125" customWidth="1"/>
@@ -962,7 +964,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1014,7 +1016,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
